--- a/LF/PreTAS/Senegal/2022/jul 2022/sn_lf_pretas_3_fts_result_202207.xlsx
+++ b/LF/PreTAS/Senegal/2022/jul 2022/sn_lf_pretas_3_fts_result_202207.xlsx
@@ -180,13 +180,13 @@
     <t xml:space="preserve">Entrer le code d'identification unique du test de diagnostic </t>
   </si>
   <si>
-    <t>regex(.,'^[A-Z]{3}-[0-9]{3}-[0-9]{4}-[0-9]{3}$')</t>
-  </si>
-  <si>
-    <t>The format should be ABC-123-1234-567. Just the second and third part of the code</t>
-  </si>
-  <si>
-    <t>Le format doit être ABC-123-1234-567. Juste la deuxième et la troisième partie du code</t>
+    <t>regex(.,'^[0-9]{3}-[0-9]{4}-[0-9]{3}$')</t>
+  </si>
+  <si>
+    <t>The format should be 123-1234-567. Just the second and third part of the code</t>
+  </si>
+  <si>
+    <t>Le format doit être 123-1234-567. Juste la deuxième et la troisième partie du code</t>
   </si>
   <si>
     <t>concat(${d_cluster_id}, '-' ,${d_num})</t>
@@ -1768,11 +1768,11 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="$A3:$XFD3"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>

--- a/LF/PreTAS/Senegal/2022/jul 2022/sn_lf_pretas_3_fts_result_202207.xlsx
+++ b/LF/PreTAS/Senegal/2022/jul 2022/sn_lf_pretas_3_fts_result_202207.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="172">
   <si>
     <t>type</t>
   </si>
@@ -129,48 +129,6 @@
     <t>Sélectionner le code du site</t>
   </si>
   <si>
-    <t>d_num</t>
-  </si>
-  <si>
-    <t>Enter the order number</t>
-  </si>
-  <si>
-    <t>Must be between 1 and 500</t>
-  </si>
-  <si>
-    <t>Numéro d'ordre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doit être compris entre 1 et 500 </t>
-  </si>
-  <si>
-    <t>. &gt; 0 and . &lt;= 410</t>
-  </si>
-  <si>
-    <t>The value must be between 1 and 410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La valeur doit être compris entre 1 et 410 </t>
-  </si>
-  <si>
-    <t>d_num2</t>
-  </si>
-  <si>
-    <t>Repeat order number</t>
-  </si>
-  <si>
-    <t>Répéter le numéro d'ordre</t>
-  </si>
-  <si>
-    <t>. = ${d_num}</t>
-  </si>
-  <si>
-    <t>The order number must be the same</t>
-  </si>
-  <si>
-    <t>Le numéro d'ordre doit être le même</t>
-  </si>
-  <si>
     <t>d_code_id</t>
   </si>
   <si>
@@ -183,13 +141,10 @@
     <t>regex(.,'^[0-9]{3}-[0-9]{4}-[0-9]{3}$')</t>
   </si>
   <si>
-    <t>The format should be 123-1234-567. Just the second and third part of the code</t>
-  </si>
-  <si>
-    <t>Le format doit être 123-1234-567. Juste la deuxième et la troisième partie du code</t>
-  </si>
-  <si>
-    <t>concat(${d_cluster_id}, '-' ,${d_num})</t>
+    <t>The format should be 123-1234-567</t>
+  </si>
+  <si>
+    <t>Le format doit être 123-1234-567</t>
   </si>
   <si>
     <t>d_lotnumber1</t>
@@ -1305,7 +1260,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1373,9 +1328,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1765,14 +1717,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1807,10 +1759,10 @@
       <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="36" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="20" t="s">
@@ -1822,7 +1774,7 @@
       <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="36" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="20" t="s">
@@ -1860,29 +1812,29 @@
       <c r="D2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="41" t="s">
+      <c r="G2" s="39"/>
+      <c r="H2" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="J2" s="48" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="23"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40" t="s">
+      <c r="L2" s="39"/>
+      <c r="M2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
       <c r="P2" s="22"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:16">
@@ -1896,22 +1848,22 @@
         <v>29</v>
       </c>
       <c r="D3" s="24"/>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="49"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="48"/>
       <c r="K3" s="23"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40" t="s">
+      <c r="L3" s="39"/>
+      <c r="M3" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="51"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="50"/>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:16">
       <c r="A4" s="25" t="s">
@@ -1924,21 +1876,21 @@
         <v>32</v>
       </c>
       <c r="D4" s="24"/>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="49"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="48"/>
       <c r="K4" s="23"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40" t="s">
+      <c r="L4" s="39"/>
+      <c r="M4" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
       <c r="P4" s="22"/>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:16">
@@ -1952,198 +1904,177 @@
         <v>35</v>
       </c>
       <c r="D5" s="24"/>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="40"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="39"/>
       <c r="H5" s="23"/>
       <c r="I5" s="24"/>
-      <c r="J5" s="44"/>
+      <c r="J5" s="43"/>
       <c r="K5" s="23"/>
       <c r="L5" s="23"/>
-      <c r="M5" s="40" t="s">
+      <c r="M5" s="39" t="s">
         <v>26</v>
       </c>
       <c r="N5" s="23"/>
-      <c r="O5" s="40"/>
+      <c r="O5" s="39"/>
       <c r="P5" s="22"/>
     </row>
-    <row r="6" s="3" customFormat="1" ht="28.5" spans="1:16">
-      <c r="A6" s="3" t="s">
-        <v>17</v>
+    <row r="6" s="3" customFormat="1" spans="1:16">
+      <c r="A6" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="B6" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="27"/>
+      <c r="E6" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="41"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="I6" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="3" t="s">
+      <c r="J6" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="22"/>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="1:16">
+      <c r="A7" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="C7" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="26" t="s">
+      <c r="D7" s="29"/>
+      <c r="E7" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="43"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="1:16">
-      <c r="A7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="5" t="s">
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="22"/>
+    </row>
+    <row r="8" s="3" customFormat="1" ht="28.5" spans="1:16">
+      <c r="A8" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="B8" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-    </row>
-    <row r="8" s="3" customFormat="1" spans="1:17">
-      <c r="A8" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="27" t="s">
+      <c r="C8" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="D8" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="28"/>
       <c r="E8" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="23" t="s">
+      <c r="F8" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="M8" s="40" t="s">
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
       <c r="P8" s="22"/>
-      <c r="Q8" s="3" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="9" s="3" customFormat="1" spans="1:16">
       <c r="A9" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="F9" s="43"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="43" t="s">
+      <c r="L9" s="23"/>
+      <c r="M9" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+    </row>
+    <row r="10" s="3" customFormat="1" spans="1:16">
+      <c r="A10" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="23" t="s">
+      <c r="B10" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="J9" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="22"/>
-    </row>
-    <row r="10" s="3" customFormat="1" ht="28.5" spans="1:16">
-      <c r="A10" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="44" t="s">
-        <v>69</v>
-      </c>
+      <c r="C10" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="29"/>
+      <c r="E10" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="43"/>
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="29"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="28" t="s">
+        <v>62</v>
+      </c>
       <c r="L10" s="23"/>
-      <c r="M10" s="40" t="s">
+      <c r="M10" s="39" t="s">
         <v>26</v>
       </c>
       <c r="N10" s="22"/>
@@ -2152,421 +2083,361 @@
     </row>
     <row r="11" s="3" customFormat="1" spans="1:16">
       <c r="A11" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="44"/>
+        <v>63</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="43"/>
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" s="23"/>
-      <c r="M11" s="40" t="s">
+      <c r="I11" s="49"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" s="39" t="s">
         <v>26</v>
       </c>
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
     </row>
-    <row r="12" s="3" customFormat="1" spans="1:16">
+    <row r="12" s="3" customFormat="1" ht="57" spans="1:16">
       <c r="A12" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="44"/>
+        <v>66</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="43"/>
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="L12" s="23"/>
-      <c r="M12" s="40" t="s">
-        <v>26</v>
-      </c>
+      <c r="I12" s="49"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L12" s="22"/>
+      <c r="M12" s="39"/>
       <c r="N12" s="22"/>
       <c r="O12" s="22"/>
       <c r="P12" s="22"/>
     </row>
     <row r="13" s="3" customFormat="1" spans="1:16">
       <c r="A13" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="43"/>
+        <v>27</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="32"/>
+      <c r="E13" s="44" t="s">
+        <v>73</v>
+      </c>
       <c r="F13" s="44"/>
       <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="M13" s="40" t="s">
+      <c r="H13" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="22"/>
+      <c r="M13" s="39" t="s">
         <v>26</v>
       </c>
       <c r="N13" s="22"/>
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
     </row>
-    <row r="14" s="3" customFormat="1" ht="57" spans="1:16">
+    <row r="14" spans="1:16">
       <c r="A14" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="44"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="50"/>
+        <v>49</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="32"/>
       <c r="J14" s="44"/>
-      <c r="K14" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="L14" s="22"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-    </row>
-    <row r="15" s="3" customFormat="1" spans="1:16">
+      <c r="K14" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L14" s="30"/>
+      <c r="M14" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" s="45"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="I15" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="J15" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="K15" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="L15" s="22"/>
-      <c r="M15" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="32"/>
+      <c r="E15" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="44"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="L15" s="30"/>
+      <c r="M15" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="L16" s="31"/>
-      <c r="M16" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="32"/>
+      <c r="E16" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="44"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" s="30"/>
+      <c r="M16" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="L17" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+    </row>
+    <row r="18" s="18" customFormat="1" spans="1:16">
+      <c r="A18" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+    </row>
+    <row r="19" s="19" customFormat="1" spans="1:16">
+      <c r="A19" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="31"/>
+      <c r="E19" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="46"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+    </row>
+    <row r="20" ht="28.5" spans="1:16">
+      <c r="A20" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="32"/>
+      <c r="E20" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="44"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="45" t="s">
+      <c r="C21" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="45"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="29" t="s">
+      <c r="D21" s="32"/>
+      <c r="E21" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="L17" s="31"/>
-      <c r="M17" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="31" t="s">
+      <c r="F21" s="44"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" s="45"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="29" t="s">
+      <c r="B22" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="L18" s="31"/>
-      <c r="M18" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="L19" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-    </row>
-    <row r="20" s="18" customFormat="1" spans="1:16">
-      <c r="A20" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-    </row>
-    <row r="21" s="19" customFormat="1" spans="1:16">
-      <c r="A21" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="F21" s="47"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-    </row>
-    <row r="22" ht="28.5" spans="1:16">
-      <c r="A22" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="F22" s="45"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="F23" s="45"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
+        <v>97</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="31"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2596,7 +2467,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2608,209 +2479,209 @@
         <v>4</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D6" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D7" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="D8" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="D9" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="C10" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="D10" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C11" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D11" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="C12" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="D12" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" t="s">
         <v>134</v>
-      </c>
-      <c r="B13" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" t="s">
-        <v>148</v>
-      </c>
-      <c r="D13" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B14" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="C14" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="D14" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C15" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2824,16 +2695,16 @@
     </row>
     <row r="17" s="4" customFormat="1" spans="1:7">
       <c r="A17" s="9" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="10"/>
@@ -2841,16 +2712,16 @@
     </row>
     <row r="18" s="4" customFormat="1" spans="1:7">
       <c r="A18" s="9" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="10"/>
@@ -2858,16 +2729,16 @@
     </row>
     <row r="19" s="4" customFormat="1" spans="1:7">
       <c r="A19" s="9" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="10"/>
@@ -2875,16 +2746,16 @@
     </row>
     <row r="20" s="4" customFormat="1" spans="1:7">
       <c r="A20" s="9" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="10"/>
@@ -2892,16 +2763,16 @@
     </row>
     <row r="21" s="4" customFormat="1" spans="1:7">
       <c r="A21" s="9" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="10"/>
@@ -2918,133 +2789,133 @@
     </row>
     <row r="23" s="4" customFormat="1" spans="1:7">
       <c r="A23" s="9" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
     </row>
     <row r="24" s="4" customFormat="1" spans="1:7">
       <c r="A24" s="9" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
     </row>
     <row r="25" s="4" customFormat="1" spans="1:7">
       <c r="A25" s="9" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
     </row>
     <row r="26" s="4" customFormat="1" spans="1:7">
       <c r="A26" s="9" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
     </row>
     <row r="27" s="4" customFormat="1" spans="1:7">
       <c r="A27" s="9" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="9" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
     </row>
     <row r="29" s="4" customFormat="1" spans="1:5">
       <c r="A29" s="9" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" s="4" customFormat="1" spans="1:6">
@@ -3057,254 +2928,254 @@
     </row>
     <row r="31" s="4" customFormat="1" spans="1:6">
       <c r="A31" s="9" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="10" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" s="4" customFormat="1" spans="1:6">
       <c r="A32" s="9" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="10" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" s="4" customFormat="1" spans="1:6">
       <c r="A33" s="9" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="10" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" s="4" customFormat="1" spans="1:6">
       <c r="A34" s="9" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="10" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" s="4" customFormat="1" spans="1:6">
       <c r="A35" s="9" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="10" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" s="4" customFormat="1" spans="1:6">
       <c r="A36" s="9" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="10" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" s="4" customFormat="1" spans="1:6">
       <c r="A37" s="9" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="10" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" s="4" customFormat="1" spans="1:6">
       <c r="A38" s="9" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="10" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" s="4" customFormat="1" spans="1:6">
       <c r="A39" s="9" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="10" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" s="4" customFormat="1" spans="1:6">
       <c r="A40" s="9" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="10" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" s="4" customFormat="1" spans="1:6">
       <c r="A41" s="9" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="10" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" s="4" customFormat="1" spans="1:6">
       <c r="A42" s="9" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="10" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" s="4" customFormat="1" spans="1:6">
       <c r="A43" s="9" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="10" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" s="4" customFormat="1" spans="1:6">
       <c r="A44" s="9" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="10" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" s="4" customFormat="1" spans="1:5">
@@ -3316,7 +3187,7 @@
     </row>
     <row r="46" s="4" customFormat="1" spans="1:7">
       <c r="A46" s="9" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B46" s="10">
         <v>101</v>
@@ -3329,12 +3200,12 @@
       </c>
       <c r="E46" s="17"/>
       <c r="G46" s="4" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" s="4" customFormat="1" spans="1:7">
       <c r="A47" s="9" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B47" s="10">
         <v>102</v>
@@ -3347,12 +3218,12 @@
       </c>
       <c r="E47" s="17"/>
       <c r="G47" s="4" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" s="4" customFormat="1" spans="1:7">
       <c r="A48" s="9" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B48" s="10">
         <v>103</v>
@@ -3365,12 +3236,12 @@
       </c>
       <c r="E48" s="17"/>
       <c r="G48" s="4" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" s="4" customFormat="1" spans="1:7">
       <c r="A49" s="9" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B49" s="10">
         <v>104</v>
@@ -3383,12 +3254,12 @@
       </c>
       <c r="E49" s="17"/>
       <c r="G49" s="4" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" s="4" customFormat="1" spans="1:7">
       <c r="A50" s="9" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B50" s="10">
         <v>105</v>
@@ -3401,12 +3272,12 @@
       </c>
       <c r="E50" s="17"/>
       <c r="G50" s="4" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" s="4" customFormat="1" spans="1:7">
       <c r="A51" s="9" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B51" s="10">
         <v>106</v>
@@ -3419,12 +3290,12 @@
       </c>
       <c r="E51" s="17"/>
       <c r="G51" s="4" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" s="4" customFormat="1" spans="1:7">
       <c r="A52" s="9" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B52" s="10">
         <v>107</v>
@@ -3437,12 +3308,12 @@
       </c>
       <c r="E52" s="17"/>
       <c r="G52" s="4" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" s="4" customFormat="1" spans="1:7">
       <c r="A53" s="9" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B53" s="10">
         <v>108</v>
@@ -3455,12 +3326,12 @@
       </c>
       <c r="E53" s="17"/>
       <c r="G53" s="4" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" s="4" customFormat="1" spans="1:7">
       <c r="A54" s="9" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B54" s="10">
         <v>109</v>
@@ -3473,12 +3344,12 @@
       </c>
       <c r="E54" s="17"/>
       <c r="G54" s="4" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" s="4" customFormat="1" spans="1:7">
       <c r="A55" s="9" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B55" s="10">
         <v>110</v>
@@ -3491,12 +3362,12 @@
       </c>
       <c r="E55" s="17"/>
       <c r="G55" s="4" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" s="4" customFormat="1" spans="1:7">
       <c r="A56" s="9" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B56" s="10">
         <v>111</v>
@@ -3509,12 +3380,12 @@
       </c>
       <c r="E56" s="17"/>
       <c r="G56" s="4" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" s="4" customFormat="1" spans="1:7">
       <c r="A57" s="9" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B57" s="10">
         <v>112</v>
@@ -3527,12 +3398,12 @@
       </c>
       <c r="E57" s="17"/>
       <c r="G57" s="4" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" s="4" customFormat="1" spans="1:7">
       <c r="A58" s="9" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B58" s="10">
         <v>113</v>
@@ -3545,12 +3416,12 @@
       </c>
       <c r="E58" s="17"/>
       <c r="G58" s="4" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59" s="4" customFormat="1" spans="1:7">
       <c r="A59" s="9" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B59" s="10">
         <v>114</v>
@@ -3563,7 +3434,7 @@
       </c>
       <c r="E59" s="17"/>
       <c r="G59" s="4" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3590,24 +3461,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
